--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/42/word_level_predictions_42.xlsx
@@ -4662,106 +4662,106 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" t="n">
         <v>8</v>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>8</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9186,210 +9186,210 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10694,572 +10694,572 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>18</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>18</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>18</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>2</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F200" s="2" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>18</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>3</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F201" s="2" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>18</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>4</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F202" s="2" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>18</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>5</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F203" s="2" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12514,158 +12514,158 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>20</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>20</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>20</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/42/word_level_predictions_42.xlsx
@@ -4662,106 +4662,106 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr">
+      <c r="D82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F82" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="D83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9186,210 +9186,210 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" t="n">
         <v>15</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" t="n">
         <v>5</v>
       </c>
-      <c r="E169" s="2" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" t="n">
         <v>15</v>
       </c>
-      <c r="B170" s="2" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" t="n">
         <v>6</v>
       </c>
-      <c r="E170" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" t="n">
         <v>15</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" t="n">
         <v>7</v>
       </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>15</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>8</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10694,572 +10694,572 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" t="n">
-        <v>2</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>18</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>3</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>18</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>4</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>18</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>5</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11318,158 +11318,158 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -12514,158 +12514,158 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>7</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>20</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G237" s="2" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12797,7 +12797,7 @@
       </c>
       <c r="F238" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G238" s="2" t="b">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="L238" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="F239" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G239" s="2" t="b">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="L239" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
